--- a/Strc.xlsx
+++ b/Strc.xlsx
@@ -16,7 +16,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Pending Works</t>
   </si>
@@ -263,6 +262,18 @@
   </si>
   <si>
     <t>Qty</t>
+  </si>
+  <si>
+    <t>Stock Report</t>
+  </si>
+  <si>
+    <t>Cash Register</t>
+  </si>
+  <si>
+    <t>Add Voucher</t>
+  </si>
+  <si>
+    <t>Update Accounts</t>
   </si>
 </sst>
 </file>
@@ -696,10 +707,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:Q23"/>
+  <dimension ref="D5:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,15 +960,40 @@
       <c r="D21" t="s">
         <v>68</v>
       </c>
+      <c r="I21" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="22" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>69</v>
       </c>
+      <c r="I22" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="23" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>73</v>
+      </c>
+      <c r="I23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="26" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <f>M25*18%</f>
+        <v>720</v>
       </c>
     </row>
   </sheetData>
